--- a/test_cases/beach/results.xlsx
+++ b/test_cases/beach/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/beach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E35D40-DF6E-274C-B626-6D80463CDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2623E5B-7C47-F242-8613-A50581A22AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="780" windowWidth="20480" windowHeight="14900" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>alpha</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>nx</t>
+  </si>
+  <si>
+    <t>diverges</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E8E79-0CDB-9B47-AD5E-7F2A985E6A2A}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,11 +589,26 @@
       <c r="B7" s="1">
         <v>0.25</v>
       </c>
+      <c r="C7" s="2">
+        <v>1.0648107713994901</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.06142624626127</v>
+      </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>0.25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>17672.814634084702</v>
+      </c>
+      <c r="K7" s="2">
+        <v>18745.737282037699</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -632,11 +650,26 @@
       <c r="B9" s="1">
         <v>0.25</v>
       </c>
+      <c r="C9" s="2">
+        <v>1.04741381573351</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.0642385411705</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0110870951058399</v>
+      </c>
       <c r="G9">
         <v>35</v>
       </c>
       <c r="H9" s="1">
         <v>0.25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>17690.387976884798</v>
+      </c>
+      <c r="K9" s="2">
+        <v>18863.078547000801</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -661,6 +694,9 @@
       <c r="H10" s="1">
         <v>0.25</v>
       </c>
+      <c r="J10" s="2">
+        <v>17629.602071285201</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -669,12 +705,29 @@
       <c r="B11" s="1">
         <v>0.25</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2">
+        <v>1.0028422415810601</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.3653519029602599</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.98583230513084796</v>
+      </c>
       <c r="G11">
         <v>45</v>
       </c>
       <c r="H11" s="1">
         <v>0.25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17356.275062560999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>17757.440858364102</v>
+      </c>
+      <c r="K11" s="2">
+        <v>18554.905393123601</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -687,6 +740,9 @@
       <c r="C12" s="2">
         <v>1.1668987300784599</v>
       </c>
+      <c r="D12" s="2">
+        <v>6.8612866829872399</v>
+      </c>
       <c r="E12" s="2">
         <v>1.0172569916441001</v>
       </c>
@@ -697,6 +753,305 @@
         <v>0.25</v>
       </c>
       <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>18142.528546571699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.0390584049097999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.0390584049097999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0390584049097999</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20016.8024258613</v>
+      </c>
+      <c r="J18" s="2">
+        <v>19758.067451953801</v>
+      </c>
+      <c r="K18" s="2">
+        <v>21416.951098203601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.97531640682393395</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.49958021863174401</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.0813596062067501</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20519.597819089799</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20172</v>
+      </c>
+      <c r="K19" s="2">
+        <v>21533.083114385601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.70065548986585102</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.4361391587399499</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.74219953856138998</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20375.790537357301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>2.0260775149152601</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.587402699561136</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.9940192084541</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.80091917142441604</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>20288.3614873886</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20491.800363540598</v>
+      </c>
+      <c r="K22" s="2">
+        <v>21673.057537794099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.62155846368609402</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19301.725109815499</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.61295672895465503</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.76114490693609</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20370.391199111898</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20707.037485122601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>4.4498953557561398</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.77063731855498896</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>20812.1991391181</v>
+      </c>
+      <c r="K26" s="2">
+        <v>21582.155800580898</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases/beach/results.xlsx
+++ b/test_cases/beach/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/beach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2623E5B-7C47-F242-8613-A50581A22AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94320C3-C66E-4547-BD69-DF55FFD64F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="20480" windowHeight="14900" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,19 +908,27 @@
       <c r="B21">
         <v>0.5</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>0.62184284445850702</v>
+      </c>
       <c r="D21" s="2">
         <v>2.0260775149152601</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>0.73865004794426403</v>
+      </c>
       <c r="G21">
         <v>25</v>
       </c>
       <c r="H21">
         <v>0.5</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="2">
+        <v>20197.721471548</v>
+      </c>
+      <c r="K21" s="2">
+        <v>21655.141385316801</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -965,16 +973,16 @@
         <v>0.62155846368609402</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>0.70160878184890596</v>
+      </c>
       <c r="G23">
         <v>35</v>
       </c>
       <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="I23" s="2">
-        <v>19301.725109815499</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
@@ -991,7 +999,9 @@
       <c r="D24" s="2">
         <v>3.76114490693609</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>0.70985230680203903</v>
+      </c>
       <c r="G24">
         <v>40</v>
       </c>
@@ -1003,6 +1013,9 @@
       </c>
       <c r="J24" s="2">
         <v>20707.037485122601</v>
+      </c>
+      <c r="K24" s="2">
+        <v>21571.910237073898</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1012,18 +1025,26 @@
       <c r="B25">
         <v>0.5</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>0.55250413520138597</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>0.708690497288336</v>
+      </c>
       <c r="G25">
         <v>45</v>
       </c>
       <c r="H25">
         <v>0.5</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>20379.8812038898</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>21662.487417459401</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1032,7 +1053,9 @@
       <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>0.60149244571381999</v>
+      </c>
       <c r="D26" s="2">
         <v>4.4498953557561398</v>
       </c>
@@ -1045,7 +1068,9 @@
       <c r="H26">
         <v>0.5</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>20430.5855116844</v>
+      </c>
       <c r="J26" s="2">
         <v>20812.1991391181</v>
       </c>

--- a/test_cases/beach/results.xlsx
+++ b/test_cases/beach/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/beach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94320C3-C66E-4547-BD69-DF55FFD64F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF895BD2-6CBD-1247-89FE-71A4510B3161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="20480" windowHeight="14900" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B017E1C9-1B2D-1B4F-852C-3C0C8B4E6212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>alpha</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89E8E79-0CDB-9B47-AD5E-7F2A985E6A2A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,6 +1078,225 @@
         <v>21582.155800580898</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.430103548258984</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.430103548258984</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.430103548258984</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.75</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.2489386161946301</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0.75</v>
+      </c>
+      <c r="I32" s="2">
+        <v>21893.556193828499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>0.75</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.79485868514806002</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="2">
+        <v>22504.488619327502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.75</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.75319048218972195</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="2">
+        <v>22362.24832201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.75</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.73922506661452103</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="2">
+        <v>22511.5331866741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>0.75</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.65388735288286504</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>0.75</v>
+      </c>
+      <c r="I39" s="2">
+        <v>22498.347318410801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
